--- a/11. Branch Stock Request/src/layouts/BranchStockRequestReport.xlsx
+++ b/11. Branch Stock Request/src/layouts/BranchStockRequestReport.xlsx
@@ -1,51 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28821"/>
+  <x:workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIMBA GROUP\Documents\AL\BC_Dev_Projects\11. Branch Stock Request\src\layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Depot\BcCore\Platform\Server\Prod.Ncl\Runtime\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B9B8CA-D2C8-485F-8604-91767BE759F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension Id from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ObjectCaption" comment="Use this function to get the Object Caption from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Caption",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company Display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.DateLocal" comment="Use this function to get the Date (Local) from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date (Local)",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",#REF!,#REF!,"none")</definedName>
-    <definedName name="ReportRequest.UTCOffset" comment="Use this function to get the UTC Offset from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("UTC Offset",#REF!,#REF!,"none")</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC384A2-C507-4D37-A98A-C7420B7BE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="540" windowWidth="30825" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
+    <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
+    <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectCaption" comment="Use this function to get the Object Caption from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Caption",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company Display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.DateLocal" comment="Use this function to get the Date (Local) from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date (Local)",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportRequest.UTCOffset" comment="Use this function to get the UTC Offset from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("UTC Offset",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none")</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension Id from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none")</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="191029"/>
+  <x:fileRecoveryPr repairLoad="1"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -55,154 +59,493 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>StoreNo</t>
-  </si>
-  <si>
-    <t>DocumentDate</t>
-  </si>
-  <si>
-    <t>ReferenceNo</t>
-  </si>
-  <si>
-    <t>FromStoreNo</t>
-  </si>
-  <si>
-    <t>ItemNo</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>TransferNo</t>
-  </si>
-  <si>
-    <t>Transfer_from_Code</t>
-  </si>
-  <si>
-    <t>Transfer_to_Code</t>
-  </si>
-  <si>
-    <t>TransferLineItemNo</t>
-  </si>
-  <si>
-    <t>TransferLineQuantity</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+  <si>
+    <t>TemplateColumn</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CaptionKey</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>Request Page Option</t>
+  </si>
+  <si>
+    <t>Request Page Option Value</t>
+  </si>
+  <si>
+    <t>Report Property</t>
+  </si>
+  <si>
+    <t>Report Property Value</t>
+  </si>
+  <si>
+    <t>Extension ID</t>
+  </si>
+  <si>
+    <t>Extension ID Value</t>
+  </si>
+  <si>
+    <t>Extension Name</t>
+  </si>
+  <si>
+    <t>Extension Name Value</t>
+  </si>
+  <si>
+    <t>Extension Publisher</t>
+  </si>
+  <si>
+    <t>Extension Publisher Value</t>
+  </si>
+  <si>
+    <t>Extension Version</t>
+  </si>
+  <si>
+    <t>Extension Version Value</t>
+  </si>
+  <si>
+    <t>Object ID</t>
+  </si>
+  <si>
+    <t>Object ID Value</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Name Value</t>
+  </si>
+  <si>
+    <t>About This Report Title</t>
+  </si>
+  <si>
+    <t>About This Report Title Value</t>
+  </si>
+  <si>
+    <t>About This Report Text</t>
+  </si>
+  <si>
+    <t>About This Report Text Value</t>
+  </si>
+  <si>
+    <t>Report help link</t>
+  </si>
+  <si>
+    <t>Report help link Value</t>
+  </si>
+  <si>
+    <t>Request Property</t>
+  </si>
+  <si>
+    <t>Request Property Value</t>
+  </si>
+  <si>
+    <t>Tenant Id</t>
+  </si>
+  <si>
+    <t>Tenant Id Value</t>
+  </si>
+  <si>
+    <t>Environment name</t>
+  </si>
+  <si>
+    <t>Environment name Value</t>
+  </si>
+  <si>
+    <t>Environment type</t>
+  </si>
+  <si>
+    <t>Environment type Value</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Company name Value</t>
+  </si>
+  <si>
+    <t>Company Id</t>
+  </si>
+  <si>
+    <t>Company Id Value</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>User name Value</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date Value</t>
+  </si>
+  <si>
+    <t>Language Value</t>
+  </si>
+  <si>
+    <t>Format Region</t>
+  </si>
+  <si>
+    <t>Format Region Value</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Filter Value</t>
+  </si>
+  <si>
+    <t>CaptionValue</t>
+  </si>
+  <si>
+    <t>Tenant Entra Id</t>
+  </si>
+  <si>
+    <t>Tenant Entra Id Value</t>
+  </si>
+  <si>
+    <t>Company display name</t>
+  </si>
+  <si>
+    <t>Company display name Value</t>
+  </si>
+  <si>
+    <t>Layout name</t>
+  </si>
+  <si>
+    <t>Layout name Value</t>
+  </si>
+  <si>
+    <t>Layout caption</t>
+  </si>
+  <si>
+    <t>Layout caption Value</t>
+  </si>
+  <si>
+    <t>Layout id</t>
+  </si>
+  <si>
+    <t>Layout id Value</t>
+  </si>
+  <si>
+    <t>Object Caption</t>
+  </si>
+  <si>
+    <t>Object Caption Value</t>
+  </si>
+  <si>
+    <t>Date (Local)</t>
+  </si>
+  <si>
+    <t>Date (Local) Value</t>
+  </si>
+  <si>
+    <t>UTC Offset</t>
+  </si>
+  <si>
+    <t>UTC Offset Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="0"/>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC0C0C0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="5">
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:b/>
+        <x:i val="0"/>
+        <x:strike val="0"/>
+        <x:condense val="0"/>
+        <x:extend val="0"/>
+        <x:outline val="0"/>
+        <x:shadow val="0"/>
+        <x:u val="none"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color auto="1"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:font>
+      <x:numFmt numFmtId="30" formatCode="@"/>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor indexed="64"/>
+          <x:bgColor rgb="FFC0C0C0"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+  </x:dxfs>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:M2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:M2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="No"/>
-    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StoreNo"/>
-    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DocumentDate"/>
-    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="ReferenceNo"/>
-    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FromStoreNo"/>
-    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="ItemNo"/>
-    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Quantity"/>
-    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="TransferNo"/>
-    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Transfer_from_Code"/>
-    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Transfer_to_Code"/>
-    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="TransferLineItemNo"/>
-    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="TransferLineQuantity"/>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:N2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="14">
+    <x:tableColumn id="1" name="Stock_Request_No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="StoreNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="DocumentDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="ReferenceNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="FromStoreNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="ItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="Quantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="TransferNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="Posting_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="Transfer_from_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="Transfer_to_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="TransferLineItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="TransferLineQuantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}" name="TranslationData" displayName="TranslationData" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8F1461C4-E348-4166-87E9-8D4925AB342B}" name="CaptionKey"/>
+    <tableColumn id="2" xr3:uid="{B1350A6A-8E59-4E2C-AACD-14E037DDCF40}" name="Language"/>
+    <tableColumn id="3" xr3:uid="{8218ECD7-CE7E-4E5C-ACDE-0ADC9D0CE65E}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}" name="CaptionData" displayName="CaptionData" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9C04E6DA-1D54-48CA-A030-6BAD61CB0617}" name="Caption"/>
+    <tableColumn id="2" xr3:uid="{89582DF0-EB9B-41CD-8C22-DFBA8F8BD440}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B11" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:B11" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
+    <tableColumn id="2" xr3:uid="{920E2177-8B70-4968-B161-4C2CF0A824C6}" name="Report Property Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="D1:E17" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
+    <tableColumn id="2" xr3:uid="{FA31CE16-2D0E-4E4D-BC19-2B03E00E4B08}" name="Request Property Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
+    <tableColumn id="2" xr3:uid="{BBB51944-3368-483F-9ECA-E66C489A7E1A}" name="Request Page Option Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
+    <tableColumn id="2" xr3:uid="{F291234F-EE76-4AF1-A03D-6D3FB6737920}" name="Filter Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -502,99 +845,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>Stock_Request_No</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>StoreNo</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>DocumentDate</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>ReferenceNo</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>FromStoreNo</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>ItemNo</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>Description</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:v>Quantity</x:v>
+      </x:c>
+      <x:c r="I1" t="str">
+        <x:v>TransferNo</x:v>
+      </x:c>
+      <x:c r="J1" t="str">
+        <x:v>Posting_Date</x:v>
+      </x:c>
+      <x:c r="K1" t="str">
+        <x:v>Transfer_from_Code</x:v>
+      </x:c>
+      <x:c r="L1" t="str">
+        <x:v>Transfer_to_Code</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
+        <x:v>TransferLineItemNo</x:v>
+      </x:c>
+      <x:c r="N1" t="str">
+        <x:v>TransferLineQuantity</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C2" s="2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="F2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="G2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="I2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J2" s="2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="M2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="N2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B660A3C-AF79-49CD-9630-9BBF64CB79D9}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -605,6 +987,304 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD9D77-FE1A-4986-8555-546CEA41E376}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D37DBB-4AC2-46F2-B64A-5C237CE209EB}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
